--- a/mvc/downloads/airport_master.xlsx
+++ b/mvc/downloads/airport_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>S.No</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t xml:space="preserve">Area </t>
+  </si>
+  <si>
+    <t>ICAO</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -447,7 +450,9 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
